--- a/output/access.xlsx
+++ b/output/access.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/664fb8667cea0a38/Documents/GitHub/puntajes_udea/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{D77BD6B2-774F-4A23-AB9F-1EC002F27793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B62933E-8ACA-4C9F-BA9A-5AEEDE99DCB7}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{D77BD6B2-774F-4A23-AB9F-1EC002F27793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEE044C9-F6D2-4D5A-8BC6-7319CC61D93A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABF4BB2A-FDB8-40CE-B522-CD91C9377067}"/>
   </bookViews>
   <sheets>
-    <sheet name="acc_18_22" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -194,6 +194,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,7 +500,7 @@
   <dimension ref="A1:M987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/output/access.xlsx
+++ b/output/access.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/664fb8667cea0a38/Documents/GitHub/puntajes_udea/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{D77BD6B2-774F-4A23-AB9F-1EC002F27793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEE044C9-F6D2-4D5A-8BC6-7319CC61D93A}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{D77BD6B2-774F-4A23-AB9F-1EC002F27793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0112DF6E-AE83-4DD4-9A68-F5306603B048}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABF4BB2A-FDB8-40CE-B522-CD91C9377067}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{ABF4BB2A-FDB8-40CE-B522-CD91C9377067}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>SEMESTRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAJA VISIÓN </t>
   </si>
   <si>
     <t>COMPROMISO MIEMBROS SUPERIORES</t>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>TOTAL de Estudiantes matriculados con discapacidad</t>
+  </si>
+  <si>
+    <t>BAJA VISIÓN</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
   <dimension ref="A1:M987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -517,40 +517,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
